--- a/data_1tier.xlsx
+++ b/data_1tier.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Documents\heroku\nw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskar\Documents\GitHub\lunchwizard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="raw" sheetId="2" r:id="rId1"/>
+    <sheet name="points" sheetId="2" r:id="rId1"/>
+    <sheet name="leagues" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sean </t>
   </si>
@@ -57,6 +58,27 @@
   </si>
   <si>
     <t>Calvin</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Mike</t>
   </si>
 </sst>
 </file>
@@ -150,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -161,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +512,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -523,8 +546,11 @@
       <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>42221</v>
       </c>
@@ -545,7 +571,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>42226</v>
       </c>
@@ -568,7 +594,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>42233</v>
       </c>
@@ -593,7 +619,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>42240</v>
       </c>
@@ -616,7 +642,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>42241</v>
       </c>
@@ -639,7 +665,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>42242</v>
       </c>
@@ -662,7 +688,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>42244</v>
       </c>
@@ -683,7 +709,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>42257</v>
       </c>
@@ -706,7 +732,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>42261</v>
       </c>
@@ -731,7 +757,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>42262</v>
       </c>
@@ -758,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>42263</v>
       </c>
@@ -783,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42265</v>
       </c>
@@ -808,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42268</v>
       </c>
@@ -835,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42269</v>
       </c>
@@ -862,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>42271</v>
       </c>
@@ -3261,6 +3287,1190 @@
         <v>1</v>
       </c>
     </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>42430</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>42431</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>42432</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>42432</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>42433</v>
+      </c>
+      <c r="B109" s="3">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>42436</v>
+      </c>
+      <c r="B110" s="3">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>42437</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>42438</v>
+      </c>
+      <c r="B112" s="3">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>42439</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>42440</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>7</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>42443</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>6</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>42443</v>
+      </c>
+      <c r="B116" s="3">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>42444</v>
+      </c>
+      <c r="B117" s="3">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>42445</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>42445</v>
+      </c>
+      <c r="B119" s="3">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>6</v>
+      </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>42446</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>42447</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>4</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>42450</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>42450</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>6</v>
+      </c>
+      <c r="L123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>42451</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>42451</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>42452</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>42452</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>42457</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>5</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>42458</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>42460</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="I130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>42461</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>42461</v>
+      </c>
+      <c r="F132">
+        <v>6</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>42464</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>42464</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="H134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>6</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>42465</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>6</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>42465</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <v>6</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>42466</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>42466</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>5</v>
+      </c>
+      <c r="J138">
+        <v>6</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>42467</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>6</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>42467</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>42468</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+      <c r="H141">
+        <v>5</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>42471</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>6</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="L142">
+        <v>6</v>
+      </c>
+      <c r="M142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>42472</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>42472</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="H144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>42473</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="I145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>42473</v>
+      </c>
+      <c r="E146">
+        <v>6</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>42478</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>6</v>
+      </c>
+      <c r="J147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>42479</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>42480</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>42481</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>6</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>5</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>42485</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>42485</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>6</v>
+      </c>
+      <c r="J152">
+        <v>5</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>42486</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>6</v>
+      </c>
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>42486</v>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>6</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>42487</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="G155">
+        <v>4</v>
+      </c>
+      <c r="I155">
+        <v>6</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>42487</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>42488</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>4</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>42461</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>42491</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
